--- a/data/trans_orig/P14B23_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>9174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4484</v>
+        <v>4712</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17361</v>
+        <v>17458</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01359556157489587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006645163686388305</v>
+        <v>0.006983287652284579</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02572789950769687</v>
+        <v>0.02587146798188409</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -763,19 +763,19 @@
         <v>32793</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23254</v>
+        <v>23015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46141</v>
+        <v>45094</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04880886931460709</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03461131167803365</v>
+        <v>0.03425531049292929</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06867675324544362</v>
+        <v>0.06711776267845358</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -784,19 +784,19 @@
         <v>41967</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31011</v>
+        <v>30357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57080</v>
+        <v>55808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03116380440292338</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02302805842872147</v>
+        <v>0.02254235483617759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04238661386035553</v>
+        <v>0.04144161440866252</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>665626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>657439</v>
+        <v>657342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>670316</v>
+        <v>670088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9864044384251042</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9742721004923031</v>
+        <v>0.9741285320181152</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9933548363136114</v>
+        <v>0.9930167123477154</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>634</v>
@@ -834,19 +834,19 @@
         <v>639069</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>625721</v>
+        <v>626768</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>648608</v>
+        <v>648847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.951191130685393</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9313232467545564</v>
+        <v>0.9328822373215464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9653886883219663</v>
+        <v>0.9657446895070707</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1277</v>
@@ -855,19 +855,19 @@
         <v>1304695</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1289582</v>
+        <v>1290854</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1315651</v>
+        <v>1316305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9688361955970767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9576133861396444</v>
+        <v>0.9585583855913374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9769719415712785</v>
+        <v>0.9774576451638225</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>9143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4361</v>
+        <v>4268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16500</v>
+        <v>16430</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008942029708311244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004264872082077167</v>
+        <v>0.004174379158978664</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01613766930135316</v>
+        <v>0.01606989006317578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -980,19 +980,19 @@
         <v>44468</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31903</v>
+        <v>32995</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59328</v>
+        <v>61125</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04263786438864704</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03058992105091075</v>
+        <v>0.03163714609909665</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05688660163572482</v>
+        <v>0.05861029242217757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -1001,19 +1001,19 @@
         <v>53610</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40276</v>
+        <v>40015</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70059</v>
+        <v>69445</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02595702779409514</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01950079139733358</v>
+        <v>0.0193744705026303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0339213657878466</v>
+        <v>0.03362401843467163</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1013288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1005931</v>
+        <v>1006001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1018070</v>
+        <v>1018163</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9910579702916887</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9838623306986468</v>
+        <v>0.9839301099368243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995735127917923</v>
+        <v>0.9958256208410213</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>937</v>
@@ -1051,19 +1051,19 @@
         <v>998445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>983585</v>
+        <v>981788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1011010</v>
+        <v>1009918</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.957362135611353</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.943113398364275</v>
+        <v>0.9413897075778223</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9694100789490891</v>
+        <v>0.9683628539009034</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1879</v>
@@ -1072,19 +1072,19 @@
         <v>2011734</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1995285</v>
+        <v>1995899</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2025068</v>
+        <v>2025329</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9740429722059049</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9660786342121536</v>
+        <v>0.9663759815653284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9804992086026665</v>
+        <v>0.9806255294973698</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>11984</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6455</v>
+        <v>6190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21779</v>
+        <v>20570</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01577807591502183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008498992351690505</v>
+        <v>0.008149371759437574</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02867349408207089</v>
+        <v>0.02708136891592959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1197,19 +1197,19 @@
         <v>27685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18860</v>
+        <v>18132</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40033</v>
+        <v>40057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03526734295820538</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02402475709652737</v>
+        <v>0.02309772911154797</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05099644841316096</v>
+        <v>0.05102677614912283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1218,19 +1218,19 @@
         <v>39670</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28851</v>
+        <v>28075</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55062</v>
+        <v>54807</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02568332769167286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01867890967130926</v>
+        <v>0.01817650383443982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03564873495750672</v>
+        <v>0.03548407038062665</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>747568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>737773</v>
+        <v>738982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753097</v>
+        <v>753362</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9842219240849782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9713265059179284</v>
+        <v>0.9729186310840698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9915010076483094</v>
+        <v>0.9918506282405622</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>711</v>
@@ -1268,19 +1268,19 @@
         <v>757326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>744978</v>
+        <v>744954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>766151</v>
+        <v>766879</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9647326570417946</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9490035515868398</v>
+        <v>0.948973223850877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9759752429034727</v>
+        <v>0.9769022708884519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1396</v>
@@ -1289,19 +1289,19 @@
         <v>1504893</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1489501</v>
+        <v>1489756</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1515712</v>
+        <v>1516488</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9743166723083272</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9643512650424934</v>
+        <v>0.9645159296193736</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9813210903286906</v>
+        <v>0.9818234961655604</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>16205</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9500</v>
+        <v>10279</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25322</v>
+        <v>25735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01728376125067141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01013208054281873</v>
+        <v>0.01096351640941694</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02700838952033323</v>
+        <v>0.02744844742577975</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1414,19 +1414,19 @@
         <v>50018</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36515</v>
+        <v>36471</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66264</v>
+        <v>67088</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04791979007641239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03498390398727763</v>
+        <v>0.03494161364264255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06348502899169726</v>
+        <v>0.06427426904321565</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -1435,19 +1435,19 @@
         <v>66222</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50779</v>
+        <v>52069</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83849</v>
+        <v>83273</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03342291298364106</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02562868758383995</v>
+        <v>0.02627947316617888</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04231918775636227</v>
+        <v>0.04202852340337604</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>921362</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>912245</v>
+        <v>911832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>928067</v>
+        <v>927288</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9827162387493286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9729916104796669</v>
+        <v>0.9725515525742207</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9898679194571814</v>
+        <v>0.989036483590583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>916</v>
@@ -1485,19 +1485,19 @@
         <v>993761</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>977515</v>
+        <v>976691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1007264</v>
+        <v>1007308</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9520802099235877</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9365149710083028</v>
+        <v>0.9357257309567842</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9650160960127224</v>
+        <v>0.9650583863573569</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1831</v>
@@ -1506,19 +1506,19 @@
         <v>1915124</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1897497</v>
+        <v>1898073</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1930567</v>
+        <v>1929277</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9665770870163589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9576808122436377</v>
+        <v>0.957971476596624</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.97437131241616</v>
+        <v>0.973720526833821</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>46506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33620</v>
+        <v>33852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60888</v>
+        <v>60860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01370095817632108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009904635097619702</v>
+        <v>0.0099728982461705</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01793813577392668</v>
+        <v>0.01792978533274283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -1631,19 +1631,19 @@
         <v>154963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>129374</v>
+        <v>131752</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>182361</v>
+        <v>179332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04373091245338123</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03650957297871499</v>
+        <v>0.0371807017936138</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05146248341927408</v>
+        <v>0.05060769278017249</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -1652,19 +1652,19 @@
         <v>201469</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174723</v>
+        <v>174696</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>230404</v>
+        <v>231745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02903886460205626</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02518384634110131</v>
+        <v>0.0251798306923334</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03320939766737747</v>
+        <v>0.03340262859577721</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3347844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3333462</v>
+        <v>3333490</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3360730</v>
+        <v>3360498</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9862990418236789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9820618642260737</v>
+        <v>0.982070214667257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9900953649023807</v>
+        <v>0.9900271017538295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3198</v>
@@ -1702,19 +1702,19 @@
         <v>3388602</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3361204</v>
+        <v>3364233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3414191</v>
+        <v>3411813</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9562690875466188</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9485375165807258</v>
+        <v>0.9493923072198276</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9634904270212851</v>
+        <v>0.9628192982063862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6383</v>
@@ -1723,19 +1723,19 @@
         <v>6736446</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6707511</v>
+        <v>6706170</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6763192</v>
+        <v>6763219</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9709611353979437</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9667906023326226</v>
+        <v>0.9665973714042229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9748161536588987</v>
+        <v>0.9748201693076668</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>31341</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22456</v>
+        <v>21058</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44935</v>
+        <v>45350</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04542389421755997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03254634039944796</v>
+        <v>0.03051961163276749</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06512670259620632</v>
+        <v>0.06572729869528679</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -2088,19 +2088,19 @@
         <v>36278</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28518</v>
+        <v>28101</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45983</v>
+        <v>46029</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04951139332864049</v>
+        <v>0.04951139332864048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03892121848513367</v>
+        <v>0.03835084851928029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06275636288436354</v>
+        <v>0.06281883325632452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>99</v>
@@ -2109,19 +2109,19 @@
         <v>67619</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54008</v>
+        <v>54124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84009</v>
+        <v>83760</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0475290592678525</v>
+        <v>0.04752905926785248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03796166482284657</v>
+        <v>0.03804339440688224</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05904923085839417</v>
+        <v>0.05887439032649909</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>658628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>645034</v>
+        <v>644619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>667513</v>
+        <v>668911</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.95457610578244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9348732974037942</v>
+        <v>0.9342727013047133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9674536596005521</v>
+        <v>0.9694803883672325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1169</v>
@@ -2159,19 +2159,19 @@
         <v>696444</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>686739</v>
+        <v>686693</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>704204</v>
+        <v>704621</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9504886066713597</v>
+        <v>0.9504886066713595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9372436371156365</v>
+        <v>0.9371811667436751</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9610787815148666</v>
+        <v>0.9616491514807198</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1868</v>
@@ -2180,19 +2180,19 @@
         <v>1355072</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1338682</v>
+        <v>1338931</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1368683</v>
+        <v>1368567</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9524709407321476</v>
+        <v>0.9524709407321474</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9409507691416058</v>
+        <v>0.9411256096735009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9620383351771531</v>
+        <v>0.9619566055931176</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>21577</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13690</v>
+        <v>13661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33537</v>
+        <v>32611</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02057116422754954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01305170857972504</v>
+        <v>0.01302406970930215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03197324114639537</v>
+        <v>0.03109043447862299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -2305,19 +2305,19 @@
         <v>59317</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47512</v>
+        <v>48434</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71670</v>
+        <v>72075</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05553794084201596</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.044485588431706</v>
+        <v>0.0453485851124256</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06710403336953297</v>
+        <v>0.06748383341033837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -2326,19 +2326,19 @@
         <v>80894</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65621</v>
+        <v>66073</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95033</v>
+        <v>97290</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03821247912371702</v>
+        <v>0.03821247912371703</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0309976653587632</v>
+        <v>0.03121130316203883</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04489116454325169</v>
+        <v>0.045957282871493</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1027340</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1015380</v>
+        <v>1016306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1035227</v>
+        <v>1035256</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9794288357724505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9680267588536047</v>
+        <v>0.9689095655213771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9869482914202751</v>
+        <v>0.9869759302906977</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1418</v>
@@ -2376,19 +2376,19 @@
         <v>1008723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>996370</v>
+        <v>995965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1020528</v>
+        <v>1019606</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9444620591579841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9328959666304667</v>
+        <v>0.9325161665896613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9555144115682939</v>
+        <v>0.9546514148875743</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2359</v>
@@ -2397,19 +2397,19 @@
         <v>2036063</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2021924</v>
+        <v>2019667</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2051336</v>
+        <v>2050884</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9617875208762831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9551088354567486</v>
+        <v>0.954042717128507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9690023346412369</v>
+        <v>0.9687886968379614</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>23596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14431</v>
+        <v>14012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38549</v>
+        <v>38423</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02952734597601688</v>
+        <v>0.02952734597601689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01805846710639301</v>
+        <v>0.01753430363343196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04823973677787748</v>
+        <v>0.04808204913830383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2522,19 +2522,19 @@
         <v>54532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42495</v>
+        <v>42150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68969</v>
+        <v>68342</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06719468822950746</v>
+        <v>0.06719468822950747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05236238535275612</v>
+        <v>0.05193708393626133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08498481188612846</v>
+        <v>0.08421219883426037</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -2543,19 +2543,19 @@
         <v>78128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63728</v>
+        <v>62775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98208</v>
+        <v>98111</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04850644727074931</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03956601145476944</v>
+        <v>0.0389748528900817</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0609734745659689</v>
+        <v>0.06091324328614393</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>775517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>760564</v>
+        <v>760690</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784682</v>
+        <v>785101</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9704726540239831</v>
+        <v>0.9704726540239833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9517602632221234</v>
+        <v>0.9519179508616962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9819415328936072</v>
+        <v>0.9824656963665681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>972</v>
@@ -2593,19 +2593,19 @@
         <v>757018</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>742581</v>
+        <v>743208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>769055</v>
+        <v>769400</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9328053117704926</v>
+        <v>0.9328053117704928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9150151881138716</v>
+        <v>0.9157878011657395</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9476376146472437</v>
+        <v>0.9480629160637385</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1624</v>
@@ -2614,19 +2614,19 @@
         <v>1532535</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1512455</v>
+        <v>1512552</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1546935</v>
+        <v>1547888</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9514935527292508</v>
+        <v>0.9514935527292507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9390265254340312</v>
+        <v>0.9390867567138557</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9604339885452305</v>
+        <v>0.9610251471099184</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>41065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30120</v>
+        <v>29659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55552</v>
+        <v>53997</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0415016726578652</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03044061566009946</v>
+        <v>0.02997434768207302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05614279364822378</v>
+        <v>0.05457091879759041</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -2739,19 +2739,19 @@
         <v>71681</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58559</v>
+        <v>58427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85676</v>
+        <v>86258</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06413661746137868</v>
+        <v>0.06413661746137869</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05239508711244058</v>
+        <v>0.05227700120665187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07665831752625271</v>
+        <v>0.07717907776805048</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -2760,19 +2760,19 @@
         <v>112746</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94369</v>
+        <v>95088</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132765</v>
+        <v>132355</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05350746053369806</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04478589767362358</v>
+        <v>0.04512711399586337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06300807440633241</v>
+        <v>0.06281319436554293</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>948417</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>933930</v>
+        <v>935485</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>959362</v>
+        <v>959823</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9584983273421349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9438572063517761</v>
+        <v>0.9454290812024095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9695593843399005</v>
+        <v>0.970025652317927</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1453</v>
@@ -2810,19 +2810,19 @@
         <v>1045953</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1031958</v>
+        <v>1031376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1059075</v>
+        <v>1059207</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9358633825386213</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9233416824737473</v>
+        <v>0.9228209222319493</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9476049128875594</v>
+        <v>0.9477229987933481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2413</v>
@@ -2831,19 +2831,19 @@
         <v>1994369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1974350</v>
+        <v>1974760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2012746</v>
+        <v>2012027</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9464925394663021</v>
+        <v>0.946492539466302</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9369919255936674</v>
+        <v>0.937186805634457</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.955214102326376</v>
+        <v>0.9548728860041367</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>117579</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96181</v>
+        <v>96303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142647</v>
+        <v>140939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03333238808431482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02726626269664177</v>
+        <v>0.02730078498706004</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04043864925439259</v>
+        <v>0.03995448698142614</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>344</v>
@@ -2956,19 +2956,19 @@
         <v>221808</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>198819</v>
+        <v>199103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246380</v>
+        <v>245619</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05946679866764727</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05330342144651642</v>
+        <v>0.05337959054315472</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06605448280872191</v>
+        <v>0.06585047341076429</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>462</v>
@@ -2977,19 +2977,19 @@
         <v>339387</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>307261</v>
+        <v>307890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>374714</v>
+        <v>370938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04676413627209071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04233742535129774</v>
+        <v>0.04242418755509265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05163180071213061</v>
+        <v>0.0511115075284987</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3409902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3384834</v>
+        <v>3386542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3431300</v>
+        <v>3431178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9666676119156852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9595613507456073</v>
+        <v>0.9600455130185739</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9727337373033583</v>
+        <v>0.97269921501294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5012</v>
@@ -3027,19 +3027,19 @@
         <v>3508137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3483565</v>
+        <v>3484326</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3531126</v>
+        <v>3530842</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9405332013323529</v>
+        <v>0.9405332013323527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9339455171912779</v>
+        <v>0.9341495265892348</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9466965785534835</v>
+        <v>0.9466204094568451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8264</v>
@@ -3048,19 +3048,19 @@
         <v>6918040</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6882713</v>
+        <v>6886489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6950166</v>
+        <v>6949537</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9532358637279094</v>
+        <v>0.9532358637279091</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9483681992878692</v>
+        <v>0.9488884924715012</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9576625746487021</v>
+        <v>0.9575758124449073</v>
       </c>
     </row>
     <row r="18">
